--- a/for Hector/Tom/son1Left-lookup.xlsx
+++ b/for Hector/Tom/son1Left-lookup.xlsx
@@ -108,7 +108,7 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>END_PM</t>
+          <t>End PM</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -151,8 +151,10 @@
           <t>Beg PM:   50.600</t>
         </is>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>58.583</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>End PM:   58.583</t>
+        </is>
       </c>
       <c r="H2" s="1" t="n">
         <v>7.983</v>
@@ -192,8 +194,10 @@
           <t>Beg PM:   10.000</t>
         </is>
       </c>
-      <c r="G3" s="1" t="n">
-        <v>11.07</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>End PM:   11.070</t>
+        </is>
       </c>
       <c r="H3" s="1" t="n">
         <v>1.07</v>
@@ -233,8 +237,10 @@
           <t>Beg PM:   24.524</t>
         </is>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>26.3</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>End PM:   26.300</t>
+        </is>
       </c>
       <c r="H4" s="1" t="n">
         <v>1.776</v>
@@ -274,8 +280,10 @@
           <t>Beg PM:   50.600</t>
         </is>
       </c>
-      <c r="G5" s="1" t="n">
-        <v>58.583</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>End PM:   58.583</t>
+        </is>
       </c>
       <c r="H5" s="1" t="n">
         <v>7.983</v>
@@ -315,8 +323,10 @@
           <t>Beg PM:    0.000</t>
         </is>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>8.4</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>End PM:    8.400</t>
+        </is>
       </c>
       <c r="H6" s="1" t="n">
         <v>8.4</v>
@@ -356,8 +366,10 @@
           <t>Beg PM:   43.000</t>
         </is>
       </c>
-      <c r="G7" s="1" t="n">
-        <v>48.0</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>End PM:   48.000</t>
+        </is>
       </c>
       <c r="H7" s="1" t="n">
         <v>5.0</v>
@@ -397,8 +409,10 @@
           <t>Beg PM:   35.500</t>
         </is>
       </c>
-      <c r="G8" s="1" t="n">
-        <v>39.5</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>End PM:   39.500</t>
+        </is>
       </c>
       <c r="H8" s="1" t="n">
         <v>4.0</v>
@@ -438,8 +452,10 @@
           <t>Beg PM:   39.500</t>
         </is>
       </c>
-      <c r="G9" s="1" t="n">
-        <v>42.0</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>End PM:   42.000</t>
+        </is>
       </c>
       <c r="H9" s="1" t="n">
         <v>2.5</v>
@@ -479,8 +495,10 @@
           <t>Beg PM:   42.000</t>
         </is>
       </c>
-      <c r="G10" s="1" t="n">
-        <v>43.0</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>End PM:   43.000</t>
+        </is>
       </c>
       <c r="H10" s="1" t="n">
         <v>1.0</v>
@@ -520,8 +538,10 @@
           <t>Beg PM:   48.000</t>
         </is>
       </c>
-      <c r="G11" s="1" t="n">
-        <v>50.6</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>End PM:   50.600</t>
+        </is>
       </c>
       <c r="H11" s="1" t="n">
         <v>2.6</v>
@@ -561,8 +581,10 @@
           <t>Beg PM:    8.200</t>
         </is>
       </c>
-      <c r="G12" s="1" t="n">
-        <v>12.486</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>End PM:   12.486</t>
+        </is>
       </c>
       <c r="H12" s="1" t="n">
         <v>4.286</v>
@@ -602,8 +624,10 @@
           <t>Beg PM:   16.100</t>
         </is>
       </c>
-      <c r="G13" s="1" t="n">
-        <v>19.715</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>End PM:   19.715</t>
+        </is>
       </c>
       <c r="H13" s="1" t="n">
         <v>3.615</v>
@@ -643,8 +667,10 @@
           <t>Beg PM:   19.885</t>
         </is>
       </c>
-      <c r="G14" s="1" t="n">
-        <v>25.0</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>End PM:   25.000</t>
+        </is>
       </c>
       <c r="H14" s="1" t="n">
         <v>5.115</v>
@@ -684,8 +710,10 @@
           <t>Beg PM:   50.600</t>
         </is>
       </c>
-      <c r="G15" s="1" t="n">
-        <v>58.583</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>End PM:   58.583</t>
+        </is>
       </c>
       <c r="H15" s="1" t="n">
         <v>7.983</v>
@@ -725,8 +753,10 @@
           <t>Beg PM:   19.885</t>
         </is>
       </c>
-      <c r="G16" s="1" t="n">
-        <v>24.504</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>End PM:   24.504</t>
+        </is>
       </c>
       <c r="H16" s="1" t="n">
         <v>4.619</v>
@@ -766,8 +796,10 @@
           <t>Beg PM:   50.600</t>
         </is>
       </c>
-      <c r="G17" s="1" t="n">
-        <v>58.583</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>End PM:   58.583</t>
+        </is>
       </c>
       <c r="H17" s="1" t="n">
         <v>7.983</v>
@@ -807,8 +839,10 @@
           <t>Beg PM:   50.600</t>
         </is>
       </c>
-      <c r="G18" s="1" t="n">
-        <v>58.583</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>End PM:   58.583</t>
+        </is>
       </c>
       <c r="H18" s="1" t="n">
         <v>7.983</v>
@@ -848,8 +882,10 @@
           <t>Beg PM:   16.200</t>
         </is>
       </c>
-      <c r="G19" s="1" t="n">
-        <v>16.3</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>End PM:   16.300</t>
+        </is>
       </c>
       <c r="H19" s="1" t="n">
         <v>0.1</v>
@@ -889,8 +925,10 @@
           <t>Beg PM:   16.300</t>
         </is>
       </c>
-      <c r="G20" s="1" t="n">
-        <v>16.4</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>End PM:   16.400</t>
+        </is>
       </c>
       <c r="H20" s="1" t="n">
         <v>0.1</v>
@@ -930,8 +968,10 @@
           <t>Beg PM:   30.500</t>
         </is>
       </c>
-      <c r="G21" s="1" t="n">
-        <v>35.5</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>End PM:   35.500</t>
+        </is>
       </c>
       <c r="H21" s="1" t="n">
         <v>5.0</v>
@@ -971,8 +1011,10 @@
           <t>Beg PM:   30.500</t>
         </is>
       </c>
-      <c r="G22" s="1" t="n">
-        <v>50.6</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>End PM:   50.600</t>
+        </is>
       </c>
       <c r="H22" s="1" t="n">
         <v>20.1</v>
@@ -1012,8 +1054,10 @@
           <t>Beg PM:    0.000</t>
         </is>
       </c>
-      <c r="G23" s="1" t="n">
-        <v>7.1</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>End PM:    7.100</t>
+        </is>
       </c>
       <c r="H23" s="1" t="n">
         <v>7.1</v>
@@ -1053,8 +1097,10 @@
           <t>Beg PM:    7.100</t>
         </is>
       </c>
-      <c r="G24" s="1" t="n">
-        <v>12.206</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>End PM:   12.206</t>
+        </is>
       </c>
       <c r="H24" s="1" t="n">
         <v>5.106</v>
@@ -1094,8 +1140,10 @@
           <t>Beg PM:   12.206</t>
         </is>
       </c>
-      <c r="G25" s="1" t="n">
-        <v>24.499</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>End PM:   24.499</t>
+        </is>
       </c>
       <c r="H25" s="1" t="n">
         <v>12.293</v>
@@ -1135,8 +1183,10 @@
           <t>Beg PM:   24.499</t>
         </is>
       </c>
-      <c r="G26" s="1" t="n">
-        <v>32.055</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>End PM:   32.055</t>
+        </is>
       </c>
       <c r="H26" s="1" t="n">
         <v>7.556</v>
@@ -1176,8 +1226,10 @@
           <t>Beg PM:   32.055</t>
         </is>
       </c>
-      <c r="G27" s="1" t="n">
-        <v>42.459</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>End PM:   42.459</t>
+        </is>
       </c>
       <c r="H27" s="1" t="n">
         <v>10.404</v>
@@ -1204,10 +1256,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>select a.ea, a.treatment, a.county, a.route, a.year, ('Beg PM: ' || to_char(a.beg_pm, 990.999)) as "Beg PM", a.end_pm, (a.end_pm-a.beg_pm) as length, a.budget_group from s1383currentl a 
+          <t>select a.ea, a.treatment, a.county, a.route, a.year, ('Beg PM: ' || to_char(a.beg_pm, 990.999)) as "Beg PM", ('End PM: ' || to_char(a.end_pm, 990.999)) as "End PM", (a.end_pm-a.beg_pm) as length, a.budget_group from s1383currentl a 
 where a.county = 'SON' 
 union  
-select b.ea, b.treatment, b.county, b.route, b.year, ('Beg PM: ' || to_char(b.beg_pm, 990.999)) as "Beg PM",  b.end_pm, (b.end_pm-b.beg_pm) as length, b.budget_group from s1383historyl b 
+select b.ea, b.treatment, b.county, b.route, b.year, ('Beg PM: ' || to_char(b.beg_pm, 990.999)) as "Beg PM",  ('End PM: ' || to_char(b.end_pm, 990.999)) as "End PM",  (b.end_pm-b.beg_pm) as length, b.budget_group from s1383historyl b 
 where b.county = 'SON' 
 order by year</t>
         </is>
